--- a/tests/data/ExcelOneSheet.xlsx
+++ b/tests/data/ExcelOneSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\HEDPython\hed-python\webtools\tests\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\HEDTemp1\hed-web\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCBA220-DF71-4093-A291-B3D9BC8F9470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8194" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="883" windowWidth="33240" windowHeight="17631" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LKT 8HED3" sheetId="4" r:id="rId1"/>
@@ -83,16 +84,16 @@
     <t>Agent-action, Participant-response, (Halt, Correction)</t>
   </si>
   <si>
-    <t>Subject completes response to perturbation having steered the vehicle back to the center of the lane. Normally this would be tagged with temporal scope, but avoiding definitions here.</t>
-  </si>
-  <si>
     <t>Agent-action, Participant-response, Correction, ((Human-agent, Experiment-participant), (Modify, (Car, Angle)))</t>
+  </si>
+  <si>
+    <t>Subject completes response to perturbation having steered the vehicle back to the center of the lane. Normally this would be tagged with temporal scope but avoiding definitions here.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -423,11 +424,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -504,7 +505,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
@@ -518,7 +519,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
